--- a/BurnDownChart.xlsx
+++ b/BurnDownChart.xlsx
@@ -21,7 +21,7 @@
     <author>mkg</author>
   </authors>
   <commentList>
-    <comment ref="F5" authorId="0">
+    <comment ref="H5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0">
+    <comment ref="I5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>Project</t>
   </si>
@@ -108,58 +108,16 @@
     <t>Day 1</t>
   </si>
   <si>
-    <t>My Project</t>
-  </si>
-  <si>
-    <t>Story 1</t>
-  </si>
-  <si>
-    <t>Story 2</t>
-  </si>
-  <si>
-    <t>Story 3</t>
-  </si>
-  <si>
-    <t>Story 4</t>
-  </si>
-  <si>
     <t>Task 1.1</t>
-  </si>
-  <si>
-    <t>Task 1.2</t>
-  </si>
-  <si>
-    <t>Task 1.3</t>
   </si>
   <si>
     <t>Task 2.1</t>
   </si>
   <si>
-    <t>Task 2.2</t>
-  </si>
-  <si>
     <t>Task 3.1</t>
   </si>
   <si>
-    <t>Task 3.2</t>
-  </si>
-  <si>
-    <t>Task 3.3</t>
-  </si>
-  <si>
-    <t>Task 3.4</t>
-  </si>
-  <si>
     <t>Task 4.1</t>
-  </si>
-  <si>
-    <t>Task 4.2</t>
-  </si>
-  <si>
-    <t>Task 4.3</t>
-  </si>
-  <si>
-    <t>Task 4.4</t>
   </si>
   <si>
     <t>Ideal - Remaining efforts in uninterrupted working hours</t>
@@ -174,7 +132,103 @@
     <t>www.goodoldmanoj.com</t>
   </si>
   <si>
-    <t>Memasukan Judul Slide</t>
+    <t>Day 11</t>
+  </si>
+  <si>
+    <t>Day 12</t>
+  </si>
+  <si>
+    <t>Task 5.1</t>
+  </si>
+  <si>
+    <t>Task 10.1</t>
+  </si>
+  <si>
+    <t>Task 12.1</t>
+  </si>
+  <si>
+    <t>Task 6.1</t>
+  </si>
+  <si>
+    <t>Task 7.1</t>
+  </si>
+  <si>
+    <t>Task 8.1</t>
+  </si>
+  <si>
+    <t>Task 9.1</t>
+  </si>
+  <si>
+    <t>Task 11.1</t>
+  </si>
+  <si>
+    <t>Task 13.1</t>
+  </si>
+  <si>
+    <t>Task 14.1</t>
+  </si>
+  <si>
+    <t>Task 15.1</t>
+  </si>
+  <si>
+    <t>Task 16.1</t>
+  </si>
+  <si>
+    <t>Task 17.1</t>
+  </si>
+  <si>
+    <t>Dunia Blogger</t>
+  </si>
+  <si>
+    <t>Judul Besar</t>
+  </si>
+  <si>
+    <t>Slide 2</t>
+  </si>
+  <si>
+    <t>Slide 3</t>
+  </si>
+  <si>
+    <t>Slide 4</t>
+  </si>
+  <si>
+    <t>Slide 5</t>
+  </si>
+  <si>
+    <t>Slide 6</t>
+  </si>
+  <si>
+    <t>Slide 7</t>
+  </si>
+  <si>
+    <t>Slide 8</t>
+  </si>
+  <si>
+    <t>Slide 9</t>
+  </si>
+  <si>
+    <t>Slide 10</t>
+  </si>
+  <si>
+    <t>Slide 11</t>
+  </si>
+  <si>
+    <t>Slide 12</t>
+  </si>
+  <si>
+    <t>Slide 13</t>
+  </si>
+  <si>
+    <t>Slide 14</t>
+  </si>
+  <si>
+    <t>Slide 15</t>
+  </si>
+  <si>
+    <t>Styling</t>
+  </si>
+  <si>
+    <t>Bux Fixing</t>
   </si>
 </sst>
 </file>
@@ -278,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -294,6 +348,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -311,6 +369,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -347,41 +413,60 @@
             <c:v>Ideal burndown</c:v>
           </c:tx>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$5:$O$5</c:f>
+              <c:f>Sheet1!$F$5:$Q$5</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>Day 12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 11</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Day 10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>Day 9</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>Day 8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Day 7</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Day 6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Day 5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Day 4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Day 3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>Day 2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>Day 1</c:v>
                 </c:pt>
               </c:strCache>
@@ -389,38 +474,44 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$19:$O$19</c:f>
+              <c:f>Sheet1!$F$23:$Q$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>81</c:v>
+                  <c:v>73.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72</c:v>
+                  <c:v>66.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63</c:v>
+                  <c:v>59.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>53.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>46.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>27</c:v>
+                  <c:v>33.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18</c:v>
+                  <c:v>26.666666666666668</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>13.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6666666666666652</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -434,41 +525,60 @@
             <c:v>Actual burndown</c:v>
           </c:tx>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showVal val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$5:$O$5</c:f>
+              <c:f>Sheet1!$F$5:$Q$5</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>Day 12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 11</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Day 10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>Day 9</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>Day 8</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>Day 7</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>Day 6</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Day 5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Day 4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>Day 3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>Day 2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>Day 1</c:v>
                 </c:pt>
               </c:strCache>
@@ -476,24 +586,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$20:$O$20</c:f>
+              <c:f>Sheet1!$F$24:$Q$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>82</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65</c:v>
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,25 +634,26 @@
           <c:showVal val="1"/>
         </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="65330560"/>
-        <c:axId val="78349440"/>
+        <c:axId val="61967744"/>
+        <c:axId val="58758272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65330560"/>
+        <c:axId val="61967744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78349440"/>
+        <c:crossAx val="58758272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78349440"/>
+        <c:axId val="58758272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -529,7 +661,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="65330560"/>
+        <c:crossAx val="61967744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -539,10 +671,11 @@
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -554,13 +687,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -868,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD56"/>
+  <dimension ref="A1:XFD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -886,14 +1019,14 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="9" t="s">
-        <v>35</v>
+      <c r="E1" s="10" t="s">
+        <v>21</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -33659,16 +33792,16 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="8" t="s">
-        <v>34</v>
+      <c r="D3" s="9" t="s">
+        <v>20</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -50063,6 +50196,8 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
     </row>
     <row r="5" spans="1:16384">
       <c r="A5" s="1"/>
@@ -50079,53 +50214,59 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
     </row>
     <row r="6" spans="1:16384">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
+      <c r="C6" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6" s="4">
         <v>4</v>
@@ -50142,658 +50283,979 @@
       <c r="J6" s="4">
         <v>0</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
     </row>
     <row r="7" spans="1:16384">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="E7" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="4">
         <v>2</v>
       </c>
       <c r="G7" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
         <v>0</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
     </row>
     <row r="8" spans="1:16384">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E8" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>0</v>
+      </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
     </row>
     <row r="9" spans="1:16384">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E9" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F9" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G9" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H9" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I9" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:16384">
       <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F10" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G10" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H10" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I10" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>0</v>
+      </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
     </row>
     <row r="11" spans="1:16384">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
+      <c r="C11" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E11" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F11" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G11" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H11" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I11" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J11" s="4">
-        <v>9</v>
+        <v>0</v>
       </c>
-      <c r="K11" s="4"/>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:16384">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
+      <c r="C12" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E12" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H12" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I12" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J12" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:16384">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>17</v>
+      <c r="C13" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E13" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F13" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G13" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H13" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I13" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J13" s="4">
-        <v>7</v>
+        <v>0</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
       <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:16384">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>17</v>
+      <c r="C14" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E14" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H14" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
       <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
       <c r="O14" s="4"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
     </row>
     <row r="15" spans="1:16384">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>18</v>
+      <c r="C15" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E15" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F15" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G15" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H15" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I15" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J15" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:16384">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4</v>
+      </c>
+      <c r="G16" s="4">
+        <v>4</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>0</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4</v>
+      </c>
+      <c r="G17" s="4">
+        <v>4</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4</v>
+      </c>
+      <c r="G18" s="4">
+        <v>4</v>
+      </c>
+      <c r="H18" s="4">
+        <v>4</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2</v>
+      </c>
+      <c r="J18" s="4">
+        <v>2</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="4">
+        <v>4</v>
+      </c>
+      <c r="F19" s="4">
+        <v>4</v>
+      </c>
+      <c r="G19" s="4">
+        <v>4</v>
+      </c>
+      <c r="H19" s="4">
+        <v>4</v>
+      </c>
+      <c r="I19" s="4">
+        <v>2</v>
+      </c>
+      <c r="J19" s="4">
+        <v>2</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4</v>
+      </c>
+      <c r="G20" s="4">
+        <v>4</v>
+      </c>
+      <c r="H20" s="4">
+        <v>4</v>
+      </c>
+      <c r="I20" s="4">
+        <v>2</v>
+      </c>
+      <c r="J20" s="4">
+        <v>2</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="4">
+        <v>10</v>
+      </c>
+      <c r="F21" s="4">
+        <v>10</v>
+      </c>
+      <c r="G21" s="4">
+        <v>9</v>
+      </c>
+      <c r="H21" s="4">
+        <v>9</v>
+      </c>
+      <c r="I21" s="4">
+        <v>8</v>
+      </c>
+      <c r="J21" s="4">
+        <v>8</v>
+      </c>
+      <c r="K21" s="4">
+        <v>8</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="4">
+        <v>10</v>
+      </c>
+      <c r="F22" s="4">
+        <v>10</v>
+      </c>
+      <c r="G22" s="4">
+        <v>9</v>
+      </c>
+      <c r="H22" s="4">
+        <v>9</v>
+      </c>
+      <c r="I22" s="4">
+        <v>8</v>
+      </c>
+      <c r="J22" s="4">
+        <v>8</v>
+      </c>
+      <c r="K22" s="4">
+        <v>8</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="1"/>
+      <c r="B23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>29</v>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="4">
+        <f>SUM(E6:E22)</f>
+        <v>80</v>
       </c>
-      <c r="E16" s="4">
-        <v>6</v>
+      <c r="F23" s="4">
+        <f>E23-$E$23/12</f>
+        <v>73.333333333333329</v>
       </c>
-      <c r="F16" s="4">
-        <v>6</v>
+      <c r="G23" s="4">
+        <f t="shared" ref="F23:Q23" si="0">F23-$E$23/12</f>
+        <v>66.666666666666657</v>
       </c>
-      <c r="G16" s="4">
-        <v>6</v>
+      <c r="H23" s="4">
+        <f t="shared" si="0"/>
+        <v>59.999999999999993</v>
       </c>
-      <c r="H16" s="4">
-        <v>6</v>
+      <c r="I23" s="4">
+        <f>H23-$E$23/12</f>
+        <v>53.333333333333329</v>
       </c>
-      <c r="I16" s="4">
-        <v>6</v>
+      <c r="J23" s="4">
+        <f t="shared" si="0"/>
+        <v>46.666666666666664</v>
       </c>
-      <c r="J16" s="4">
-        <v>6</v>
+      <c r="K23" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="L23" s="4">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>18</v>
+      <c r="M23" s="4">
+        <f t="shared" si="0"/>
+        <v>26.666666666666668</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>30</v>
+      <c r="N23" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
-      <c r="E17" s="4">
-        <v>8</v>
+      <c r="O23" s="4">
+        <f t="shared" si="0"/>
+        <v>13.333333333333332</v>
       </c>
-      <c r="F17" s="4">
-        <v>8</v>
+      <c r="P23" s="4">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666652</v>
       </c>
-      <c r="G17" s="4">
-        <v>8</v>
-      </c>
-      <c r="H17" s="4">
-        <v>8</v>
-      </c>
-      <c r="I17" s="4">
-        <v>8</v>
-      </c>
-      <c r="J17" s="4">
-        <v>8</v>
-      </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="4">
-        <v>9</v>
-      </c>
-      <c r="F18" s="4">
-        <v>9</v>
-      </c>
-      <c r="G18" s="4">
-        <v>9</v>
-      </c>
-      <c r="H18" s="4">
-        <v>9</v>
-      </c>
-      <c r="I18" s="4">
-        <v>9</v>
-      </c>
-      <c r="J18" s="4">
-        <v>9</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="1"/>
-      <c r="B19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="4">
-        <f>SUM(E6:E18)</f>
-        <v>90</v>
-      </c>
-      <c r="F19" s="4">
-        <f>E19-$E$19/10</f>
-        <v>81</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" ref="G19:O19" si="0">F19-$E$19/10</f>
-        <v>72</v>
-      </c>
-      <c r="H19" s="4">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="L19" s="4">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="M19" s="4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="N19" s="4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="O19" s="4">
+      <c r="Q23" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
     </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="1"/>
-      <c r="B20" s="7" t="s">
-        <v>33</v>
+    <row r="24" spans="1:21">
+      <c r="A24" s="1"/>
+      <c r="B24" s="8" t="s">
+        <v>19</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="4">
-        <f>SUM(E6:E18)</f>
-        <v>90</v>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="4">
+        <f>SUM(E6:E22)</f>
+        <v>80</v>
       </c>
-      <c r="F20" s="4">
-        <f t="shared" ref="F20:J20" si="1">SUM(F6:F18)</f>
-        <v>82</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="H20" s="4">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="I20" s="4">
-        <f t="shared" si="1"/>
+      <c r="F24" s="4">
+        <f t="shared" ref="F24:Q24" si="1">SUM(F6:F22)</f>
         <v>74</v>
       </c>
-      <c r="J20" s="4">
+      <c r="G24" s="4">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>60</v>
       </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
+      <c r="H24" s="4">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:21">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -50813,8 +51275,10 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:21">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -50834,8 +51298,10 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:21">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -50855,8 +51321,10 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:21">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -50876,8 +51344,10 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:21">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -50897,8 +51367,10 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:21">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -50918,8 +51390,10 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:21">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -50939,8 +51413,10 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:21">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -50960,8 +51436,10 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:21">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -50981,8 +51459,10 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:21">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -51002,8 +51482,10 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:21">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -51023,8 +51505,10 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:21">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -51044,8 +51528,10 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:21">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -51065,8 +51551,10 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:21">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -51086,8 +51574,10 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:21">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -51107,8 +51597,10 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:21">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -51128,8 +51620,10 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:21">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -51149,8 +51643,10 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:21">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -51170,8 +51666,10 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:21">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -51191,8 +51689,10 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:21">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -51212,8 +51712,10 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:21">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -51233,8 +51735,10 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:21">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -51254,8 +51758,10 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:21">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -51275,8 +51781,10 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:21">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -51296,8 +51804,10 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:21">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -51317,8 +51827,10 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:21">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -51338,8 +51850,10 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:21">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -51359,8 +51873,10 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:21">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -51380,8 +51896,10 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:21">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -51401,8 +51919,10 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:21">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -51422,8 +51942,10 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:21">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -51443,8 +51965,10 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:21">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -51464,14 +51988,108 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
     </row>
   </sheetData>
   <sheetProtection password="EF56" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="4">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="D3:K3"/>
+    <mergeCell ref="E1:J1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1"/>
